--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ACF/20/seed3/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ACF/20/seed3/result_data_RandomForest.xlsx
@@ -559,12 +559,12 @@
         <v>-9.31</v>
       </c>
       <c r="E7" t="n">
-        <v>12.131</v>
+        <v>12.3409</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-21.15440000000001</v>
+        <v>-21.15580000000001</v>
       </c>
       <c r="B8" t="n">
         <v>7.52</v>
@@ -598,7 +598,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-20.57899999999997</v>
+        <v>-20.50089999999997</v>
       </c>
       <c r="B10" t="n">
         <v>9.35</v>
@@ -632,7 +632,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-22.40320000000003</v>
+        <v>-22.40550000000003</v>
       </c>
       <c r="B12" t="n">
         <v>5.38</v>
@@ -655,7 +655,7 @@
         <v>4.42</v>
       </c>
       <c r="C13" t="n">
-        <v>-12.68609999999999</v>
+        <v>-13.4795</v>
       </c>
       <c r="D13" t="n">
         <v>-8.92</v>
@@ -734,7 +734,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-22.23410000000003</v>
+        <v>-22.30330000000002</v>
       </c>
       <c r="B18" t="n">
         <v>5.81</v>
@@ -780,7 +780,7 @@
         <v>-8.140000000000001</v>
       </c>
       <c r="E20" t="n">
-        <v>13.34129999999999</v>
+        <v>12.31419999999999</v>
       </c>
     </row>
     <row r="21">
@@ -853,7 +853,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-22.29530000000003</v>
+        <v>-22.25990000000003</v>
       </c>
       <c r="B25" t="n">
         <v>5.09</v>
